--- a/config_7.20/game_activity_config.xlsx
+++ b/config_7.20/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="183">
   <si>
     <t>line|行号</t>
   </si>
@@ -634,19 +634,22 @@
     <t>祈福有礼</t>
   </si>
   <si>
-    <t>阳光榜单</t>
+    <t>积分排行榜</t>
+  </si>
+  <si>
+    <t>消耗有礼</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_xhyl","panel"</t>
   </si>
   <si>
     <t>英雄任务</t>
   </si>
   <si>
-    <t>"act_ty_task","act_yxrw","panel"</t>
-  </si>
-  <si>
     <t>"act_ty_task","act_yxrw_cjj","panel"</t>
   </si>
   <si>
-    <t>西瓜兑奖</t>
+    <t>龙虾兑换</t>
   </si>
   <si>
     <t>西瓜排行榜</t>
@@ -674,8 +677,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -729,40 +732,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,24 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,8 +768,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,9 +784,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,9 +816,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,6 +845,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -867,15 +875,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -922,7 +925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +955,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +1027,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,97 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,25 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,35 +1134,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,17 +1164,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1186,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,139 +1251,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,6 +1527,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1853,7 +1862,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4852,7 +4861,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="6">
         <v>1</v>
@@ -4861,10 +4870,10 @@
         <v>66</v>
       </c>
       <c r="I66" s="6">
-        <v>1626134400</v>
+        <v>1626739200</v>
       </c>
       <c r="J66" s="6">
-        <v>1626710399</v>
+        <v>1627315199</v>
       </c>
       <c r="K66" s="46" t="s">
         <v>21</v>
@@ -4902,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="45" t="s">
         <v>66</v>
@@ -4929,50 +4938,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:15">
-      <c r="A68" s="7">
+    <row r="68" s="6" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B68" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="44">
         <v>67</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>3</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="21" t="s">
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="7">
-        <v>1623715200</v>
-      </c>
-      <c r="J68" s="7">
-        <v>1624291199</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="7" t="s">
+      <c r="I68" s="6">
+        <v>1626739200</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1627315199</v>
+      </c>
+      <c r="K68" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="41" t="s">
+      <c r="M68" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="N68" s="7">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5" t="s">
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4987,7 +4996,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>68</v>
@@ -5014,7 +5023,7 @@
         <v>121</v>
       </c>
       <c r="M69" s="41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N69" s="7">
         <v>1</v>
@@ -5023,50 +5032,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:15">
-      <c r="A70" s="7">
+    <row r="70" s="6" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="9">
+      <c r="B70" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="44">
         <v>69</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="7">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="21" t="s">
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I70" s="7">
-        <v>1624924800</v>
-      </c>
-      <c r="J70" s="7">
-        <v>1625500799</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" s="38" t="s">
+      <c r="I70" s="6">
+        <v>1626739200</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1627315199</v>
+      </c>
+      <c r="K70" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="M70" s="42" t="s">
+      <c r="M70" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="7">
-        <v>1</v>
-      </c>
-      <c r="O70" s="5" t="s">
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5081,7 +5090,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>65</v>
@@ -5128,7 +5137,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>68</v>
@@ -5155,7 +5164,7 @@
         <v>121</v>
       </c>
       <c r="M72" s="41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N72" s="7">
         <v>1</v>
@@ -5175,7 +5184,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>68</v>
@@ -5222,7 +5231,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>65</v>
@@ -5269,7 +5278,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>65</v>
